--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>望月 雅貴 (雅MYRR)</t>
+          <t>望月 雅貴</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -527,41 +527,49 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>15:00〜16:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (SAKAMOTO)</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SAKAMOTO</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -571,91 +579,79 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>16:00〜17:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>内野 彩 (内野 彩)</t>
+          <t>川村 桃香</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>内野 彩</t>
+          <t>Kawamura Miyoko</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>川村 桃香 (Kawamura Miyoko)</t>
-        </is>
-      </c>
+          <t>10:30〜12:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kawamura Miyoko</t>
+          <t>ねこねこ</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -669,21 +665,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>11:30〜15:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>原武 翔子 (Shoko)</t>
+          <t>米山</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Shoko</t>
+          <t>Mayuri</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -695,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -709,33 +705,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:30〜12:00</t>
+          <t>13:00〜15:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (ねこねこ)</t>
+          <t>板村</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ねこねこ</t>
+          <t>まき</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -749,21 +745,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:30〜15:00</t>
+          <t>14:00〜16:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>米山 (Mayuri)</t>
+          <t>原武 翔子</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mayuri</t>
+          <t>Shoko</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -775,7 +771,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -789,21 +785,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:00〜14:30</t>
+          <t>15:00〜17:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>板村 (まき)</t>
+          <t>ハヤシ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>まき</t>
+          <t>Ayuko.H</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -815,7 +811,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -834,7 +830,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>佐藤 研一 (佐藤研一)</t>
+          <t>佐藤 研一</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -855,7 +851,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -869,27 +865,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12:00〜13:30</t>
+          <t>13:00〜15:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>仲宗根 真理 (MARI)</t>
+          <t>井戸 康雄</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>Yasuo Ido</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>📹</t>
@@ -897,13 +889,13 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -922,7 +914,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>阿部 宏史 (アベ?)</t>
+          <t>阿部 宏史</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -931,7 +923,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -951,51 +943,55 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>18:00〜19:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>青柳 亮 (アオヤギ)</t>
+          <t>石橋 麻希子</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>アオヤギ</t>
+          <t>makiko</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1009,21 +1005,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (*Meg*)</t>
-        </is>
-      </c>
+          <t>10:00〜12:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>*Meg*</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1049,73 +1041,69 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:00〜20:30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>佐藤 (よっしぃ)</t>
-        </is>
-      </c>
+          <t>18:30〜20:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>よっしぃ</t>
+          <t>SAKAMOTO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>19:00〜20:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>井下田、5. ありがとうございました。走りについて論理的な説明を初めて聞いて勉強になりました。ただ走っていた時代からすると、聞いただけでも早く走れそうな気がします。 征嗣 (IGETA S)</t>
+          <t>佐藤</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IGETA S</t>
+          <t>よっしぃ</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1129,27 +1117,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>17:00〜18:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>仲井さやか さやか (仲井さやか)</t>
+          <t>井下田、5. ありがとうございました。走りについて論理的な説明を初めて聞いて勉強になりました。ただ走っていた時代からすると、聞いただけでも早く走れそうな気がします。 征嗣</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>仲井さやか</t>
+          <t>IGETA S</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
@@ -1163,71 +1147,71 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:30〜18:00</t>
+          <t>17:30〜19:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大橋 (史子)</t>
+          <t>仲井さやか さやか</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>史子</t>
+          <t>仲井さやか</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>藤川 (M Fuji)</t>
-        </is>
-      </c>
+          <t>11:00〜16:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>M Fuji</t>
+          <t>西川菜穂子</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1239,86 +1223,82 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>16:30〜18:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>寺崎 英利子 (えりこ)</t>
+          <t>大橋</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>えりこ</t>
+          <t>史子</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>19:00〜20:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>後藤 俊 (Shun)</t>
+          <t>青柳 亮</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shun</t>
+          <t>アオヤギ</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>候補2</t>
@@ -1327,83 +1307,75 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>10:00〜12:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>仲宗根 真理 (MARI)</t>
+          <t>藤川</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>M Fuji</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>13:30〜15:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>河田 彩世 (Sayo Kawada)</t>
+          <t>寺崎 英利子</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sayo Kawada</t>
+          <t>えりこ</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1415,78 +1387,86 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>17:30〜19:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (tamie)</t>
+          <t>酒屋 恵理</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>tamie</t>
+          <t>酒屋恵理</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10:00〜11:30</t>
+          <t>10:00〜12:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>伊藤 潤 (伊藤潤)</t>
+          <t>後藤 俊</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>伊藤潤</t>
+          <t>Shun</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>候補2</t>
@@ -1495,26 +1475,26 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16:00〜17:30</t>
+          <t>16:30〜18:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>山下 真由美 (☆Mayu☆)</t>
+          <t>山下 真由美</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1523,13 +1503,173 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
+          <t>候補2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17:00〜18:30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>かすみ</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>候補2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13:00〜16:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>仲宗根 真理</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MARI</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>候補3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10:00〜15:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>河田 彩世</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sayo Kawada</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>候補1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17:00〜18:30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>tamie</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>候補1</t>
         </is>
       </c>
     </row>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,34 +491,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>15:00〜16:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>望月 雅貴</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>雅MYRR</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>候補2</t>
@@ -531,27 +539,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15:00〜16:30</t>
+          <t>14:00〜18:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>内野 彩</t>
+          <t>阿部 宏史</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>内野 彩</t>
+          <t>アベ?</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -569,7 +577,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
@@ -579,37 +587,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:00〜17:30</t>
+          <t>10:00〜12:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>川村 桃香</t>
+          <t>後藤 俊</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kawamura Miyoko</t>
+          <t>Shun</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -619,33 +635,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:30〜12:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>13:00〜16:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>仲宗根 真理</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ねこねこ</t>
+          <t>MARI</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
@@ -655,34 +683,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:30〜15:00</t>
+          <t>13:00〜15:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>米山</t>
+          <t>井戸 康雄</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mayuri</t>
+          <t>Yasuo Ido</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>候補1</t>
@@ -695,37 +727,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:00〜15:00</t>
+          <t>15:00〜16:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>板村</t>
+          <t>清水 侑美</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>まき</t>
+          <t>清水 侑美</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -735,37 +771,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14:00〜16:00</t>
+          <t>17:30〜19:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>原武 翔子</t>
+          <t>仲井さやか さやか</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Shoko</t>
+          <t>仲井さやか</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -775,33 +815,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15:00〜17:30</t>
+          <t>19:00〜20:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ハヤシ</t>
+          <t>青柳 亮</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ayuko.H</t>
+          <t>アオヤギ</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
@@ -815,27 +859,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:30〜18:00</t>
+          <t>17:30〜19:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>佐藤 研一</t>
+          <t>望月 雅貴</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>佐藤研一</t>
+          <t>雅MYRR</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -845,7 +889,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -855,41 +899,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00〜15:00</t>
+          <t>16:00〜17:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>井戸 康雄</t>
+          <t>川村 桃香</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yasuo Ido</t>
+          <t>Kawamura Miyoko</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
@@ -899,45 +939,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:00〜18:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>阿部 宏史</t>
-        </is>
-      </c>
+          <t>10:30〜12:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>アベ?</t>
+          <t>ねこねこ</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -947,45 +975,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18:00〜19:00</t>
+          <t>11:30〜15:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>石橋 麻希子</t>
+          <t>米山</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>makiko</t>
+          <t>Mayuri</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -995,23 +1015,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:00〜12:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>13:00〜15:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>板村</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>*Meg*</t>
+          <t>まき</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1021,7 +1045,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1031,23 +1055,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18:30〜20:00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>14:00〜16:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>原武 翔子</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SAKAMOTO</t>
+          <t>Shoko</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1057,7 +1085,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -1067,27 +1095,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:00〜20:30</t>
+          <t>15:00〜17:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>佐藤</t>
+          <t>ハヤシ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>よっしぃ</t>
+          <t>Ayuko.H</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1097,7 +1125,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1107,27 +1135,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17:00〜18:30</t>
+          <t>16:30〜18:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>井下田、5. ありがとうございました。走りについて論理的な説明を初めて聞いて勉強になりました。ただ走っていた時代からすると、聞いただけでも早く走れそうな気がします。 征嗣</t>
+          <t>佐藤 研一</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IGETA S</t>
+          <t>佐藤研一</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1137,7 +1165,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -1147,38 +1175,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>18:00〜19:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>仲井さやか さやか</t>
+          <t>石橋 麻希子</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>仲井さやか</t>
+          <t>makiko</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>📹</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>候補2</t>
@@ -1191,23 +1223,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:00〜16:00</t>
+          <t>10:00〜12:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>西川菜穂子</t>
+          <t>*Meg*</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1227,27 +1259,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16:30〜18:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>大橋</t>
-        </is>
-      </c>
+          <t>18:30〜20:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>史子</t>
+          <t>SAKAMOTO</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1257,7 +1285,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1267,12 +1295,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1282,26 +1310,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>青柳 亮</t>
+          <t>佐藤</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>アオヤギ</t>
+          <t>よっしぃ</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -1311,27 +1335,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00〜12:00</t>
+          <t>17:00〜18:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>藤川</t>
+          <t>井下田、5. ありがとうございました。走りについて論理的な説明を初めて聞いて勉強になりました。ただ走っていた時代からすると、聞いただけでも早く走れそうな気がします。 征嗣</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>M Fuji</t>
+          <t>IGETA S</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1341,7 +1365,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1351,27 +1375,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13:30〜15:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>寺崎 英利子</t>
-        </is>
-      </c>
+          <t>11:00〜16:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>えりこ</t>
+          <t>西川菜穂子</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1391,27 +1411,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>16:30〜18:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>酒屋 恵理</t>
+          <t>大橋</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>酒屋恵理</t>
+          <t>史子</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1431,12 +1451,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1446,30 +1466,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>後藤 俊</t>
+          <t>藤川</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shun</t>
+          <t>M Fuji</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -1479,27 +1491,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16:30〜18:00</t>
+          <t>13:30〜15:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>山下 真由美</t>
+          <t>寺崎 英利子</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>☆Mayu☆</t>
+          <t>えりこ</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1509,7 +1521,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補1</t>
         </is>
       </c>
     </row>
@@ -1519,23 +1531,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:00〜18:30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>17:30〜19:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>酒屋 恵理</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>かすみ</t>
+          <t>酒屋恵理</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1545,7 +1561,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>候補3</t>
         </is>
       </c>
     </row>
@@ -1555,45 +1571,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13:00〜16:00</t>
+          <t>16:30〜18:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>仲宗根 真理</t>
+          <t>山下 真由美</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>☆Mayu☆</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1603,27 +1611,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10:00〜15:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>河田 彩世</t>
-        </is>
-      </c>
+          <t>17:00〜18:30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sayo Kawada</t>
+          <t>かすみ</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1633,7 +1637,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>候補2</t>
         </is>
       </c>
     </row>
@@ -1643,23 +1647,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:00〜18:30</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>10:00〜15:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>河田 彩世</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>tamie</t>
+          <t>Sayo Kawada</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1668,6 +1676,42 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>候補1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17:00〜18:30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>tamie</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>候補1</t>
         </is>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="スケジュール" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zoomスケジュール" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,6 +27,7 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -38,8 +39,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
-        <bgColor rgb="00CCCCCC"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,7 +59,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,13 +426,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -451,37 +464,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>時間</t>
+          <t>開始時刻</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>終了時刻</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>LINEアカウント</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>SNS名</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>優先度</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Zoom準備</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>動画送信</t>
+          <t>動画提出</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>候補</t>
+          <t>見ました</t>
         </is>
       </c>
     </row>
@@ -501,35 +514,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:00〜16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>内野 彩</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>内野 彩</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>📹</t>
+          <t>○</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -549,12 +562,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:00〜18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>阿部 宏史</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -562,22 +575,22 @@
           <t>アベ?</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>アベ?</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>📹</t>
+          <t>○</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -597,12 +610,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00〜12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>後藤 俊</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -610,22 +623,22 @@
           <t>Shun</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Shun</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>📹</t>
+          <t>○</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>候補2</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -635,45 +648,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:00〜16:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>仲宗根 真理</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MARI</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+          <t>アオヤギ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>アオヤギ</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>候補3</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -683,41 +692,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:00〜15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>井戸 康雄</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yasuo Ido</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
+          <t>仲井さやか</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>仲井さやか</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>候補1</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -737,33 +746,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15:00〜16:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>清水 侑美</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>清水 侑美</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
+          <t>MARI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MARI</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -771,43 +776,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>仲井さやか さやか</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>仲井さやか</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
+          <t>雅MYRR</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>雅MYRR</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -815,43 +816,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:00〜20:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>青柳 亮</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>アオヤギ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
+          <t>Kawamura Miyoko</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Kawamura Miyoko</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -859,39 +856,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17:30〜19:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>望月 雅貴</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>雅MYRR</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>まき</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>まき</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -899,39 +896,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16:00〜17:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>川村 桃香</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kawamura Miyoko</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Shoko</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Shoko</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>候補3</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -949,25 +946,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:30〜12:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ねこねこ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Mayuri</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mayuri</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -985,29 +986,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:30〜15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>米山</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mayuri</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>佐藤研一</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>佐藤研一</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1015,39 +1016,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:00〜15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>板村</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>まき</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>ハヤシ</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ayuko.H</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1055,39 +1056,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:00〜16:00</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>原武 翔子</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shoko</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>*Meg*</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>*Meg*</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1095,39 +1096,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:00〜17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ハヤシ</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ayuko.H</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>よっしぃ</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>よっしぃ</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1135,39 +1136,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:30〜18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>佐藤 研一</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>佐藤研一</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>史子</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>史子</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1175,47 +1176,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18:00〜19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>石橋 麻希子</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>makiko</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>📹</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+          <t>Sayo Kawada</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sayo Kawada</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1223,35 +1216,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00〜12:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>*Meg*</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>M Fuji</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>M Fuji</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1259,35 +1256,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18:30〜20:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SAKAMOTO</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>酒屋恵理</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>酒屋恵理</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1295,39 +1296,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:00〜20:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>佐藤</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>よっしぃ</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>えりこ</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>えりこ</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1335,39 +1336,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17:00〜18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>井下田、5. ありがとうございました。走りについて論理的な説明を初めて聞いて勉強になりました。ただ走っていた時代からすると、聞いただけでも早く走れそうな気がします。 征嗣</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IGETA S</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>☆Mayu☆</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>☆Mayu☆</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,347 +1376,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11:00〜16:00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>西川菜穂子</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>かすみ</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>かすみ</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>月</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>16:30〜18:00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>大橋</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>史子</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>候補3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>水</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10:00〜12:00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>藤川</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>M Fuji</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>木</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13:30〜15:00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>寺崎 英利子</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>えりこ</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-12-18</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>木</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>17:30〜19:00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>酒屋 恵理</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>酒屋恵理</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>4</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>候補3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>土</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>16:30〜18:00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>山下 真由美</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>☆Mayu☆</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>土</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>17:00〜18:30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>かすみ</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>候補2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>月</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>10:00〜15:00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>河田 彩世</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sayo Kawada</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-12-23</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>火</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>17:00〜18:30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>tamie</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>候補1</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,32 +504,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>内野 彩</t>
+          <t>MARI</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>内野 彩</t>
+          <t>MARI</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -552,32 +552,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>アベ?</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>アベ?</t>
+          <t>内野 彩</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -600,32 +600,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Shun</t>
+          <t>makiko</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Shun</t>
+          <t>makiko</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -648,38 +648,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>アオヤギ</t>
+          <t>アベ?</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>アオヤギ</t>
+          <t>アベ?</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>○</t>
@@ -692,38 +696,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>仲井さやか</t>
+          <t>Shun</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>仲井さやか</t>
+          <t>Shun</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>○</t>
@@ -736,12 +744,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -756,19 +764,23 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>アオヤギ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MARI</t>
+          <t>アオヤギ</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -776,12 +788,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -796,19 +808,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>雅MYRR</t>
+          <t>仲井さやか</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>雅MYRR</t>
+          <t>仲井さやか</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -816,32 +832,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kawamura Miyoko</t>
+          <t>雅MYRR</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kawamura Miyoko</t>
+          <t>雅MYRR</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -856,32 +872,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>まき</t>
+          <t>Kawamura Miyoko</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>まき</t>
+          <t>Kawamura Miyoko</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -906,22 +922,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Shoko</t>
+          <t>まき</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Shoko</t>
+          <t>まき</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -946,22 +962,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mayuri</t>
+          <t>Shoko</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Mayuri</t>
+          <t>Shoko</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -986,22 +1002,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>佐藤研一</t>
+          <t>Mayuri</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>佐藤研一</t>
+          <t>Mayuri</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1016,32 +1032,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ハヤシ</t>
+          <t>佐藤研一</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ayuko.H</t>
+          <t>佐藤研一</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1056,32 +1072,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>*Meg*</t>
+          <t>ハヤシ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>*Meg*</t>
+          <t>Ayuko.H</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1096,38 +1112,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>火</t>
+          <t>日</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>よっしぃ</t>
+          <t>Yasuo Ido</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>よっしぃ</t>
+          <t>Yasuo Ido</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1136,32 +1156,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>月</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>史子</t>
+          <t>*Meg*</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>史子</t>
+          <t>*Meg*</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1176,7 +1196,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1186,22 +1206,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sayo Kawada</t>
+          <t>よっしぃ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sayo Kawada</t>
+          <t>よっしぃ</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1216,32 +1236,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>水</t>
+          <t>月</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>M Fuji</t>
+          <t>史子</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>M Fuji</t>
+          <t>史子</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1256,32 +1276,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>木</t>
+          <t>火</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>酒屋恵理</t>
+          <t>Sayo Kawada</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>酒屋恵理</t>
+          <t>Sayo Kawada</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1296,12 +1316,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金</t>
+          <t>水</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1316,12 +1336,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>えりこ</t>
+          <t>M Fuji</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>えりこ</t>
+          <t>M Fuji</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1336,32 +1356,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>木</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>☆Mayu☆</t>
+          <t>酒屋恵理</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>☆Mayu☆</t>
+          <t>酒屋恵理</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1376,32 +1396,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>金</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>かすみ</t>
+          <t>えりこ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>かすみ</t>
+          <t>えりこ</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1409,6 +1429,86 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>☆Mayu☆</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>☆Mayu☆</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>かすみ</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>かすみ</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
